--- a/stockcau/INVENTARIO_YENNY.xlsx
+++ b/stockcau/INVENTARIO_YENNY.xlsx
@@ -15,6 +15,9 @@
     <sheet name="Hoja1" sheetId="6" r:id="rId1"/>
     <sheet name="Notebook" sheetId="5" state="hidden" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$149</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="191">
   <si>
     <t>MARCA</t>
   </si>
@@ -68,9 +71,6 @@
     <t>04TEHCJJ300028</t>
   </si>
   <si>
-    <t>EN CAJA NUEVO</t>
-  </si>
-  <si>
     <t>YENNY</t>
   </si>
   <si>
@@ -594,6 +594,24 @@
   </si>
   <si>
     <t>267J7M3</t>
+  </si>
+  <si>
+    <t>NUEVO</t>
+  </si>
+  <si>
+    <t>6to Piso (Martin Gimenez)</t>
+  </si>
+  <si>
+    <t>803KCGWPR167</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>Totem frente Sala G</t>
   </si>
 </sst>
 </file>
@@ -786,7 +804,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -828,12 +846,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1155,13 +1174,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G148"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="L99" sqref="L99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
@@ -1200,13 +1226,13 @@
         <v>9</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1220,16 +1246,16 @@
         <v>32</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1243,16 +1269,16 @@
         <v>32</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1266,16 +1292,16 @@
         <v>32</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1289,16 +1315,16 @@
         <v>32</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1312,16 +1338,16 @@
         <v>32</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1335,16 +1361,16 @@
         <v>32</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1358,16 +1384,16 @@
         <v>32</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1381,16 +1407,16 @@
         <v>32</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1404,16 +1430,16 @@
         <v>32</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1427,16 +1453,16 @@
         <v>32</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1450,16 +1476,16 @@
         <v>32</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1473,16 +1499,16 @@
         <v>32</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1496,16 +1522,16 @@
         <v>32</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1519,16 +1545,16 @@
         <v>32</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1542,16 +1568,16 @@
         <v>32</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1565,16 +1591,16 @@
         <v>32</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1588,16 +1614,16 @@
         <v>32</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1611,16 +1637,16 @@
         <v>32</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1634,16 +1660,16 @@
         <v>32</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1657,16 +1683,16 @@
         <v>32</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1680,16 +1706,16 @@
         <v>32</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1703,16 +1729,16 @@
         <v>32</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1726,16 +1752,16 @@
         <v>32</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1749,16 +1775,16 @@
         <v>32</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1772,16 +1798,16 @@
         <v>32</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1795,16 +1821,16 @@
         <v>32</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1818,16 +1844,16 @@
         <v>32</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1841,16 +1867,16 @@
         <v>32</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1864,16 +1890,16 @@
         <v>32</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1887,16 +1913,16 @@
         <v>32</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1910,16 +1936,16 @@
         <v>32</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1933,16 +1959,16 @@
         <v>32</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1956,16 +1982,16 @@
         <v>32</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1979,16 +2005,16 @@
         <v>32</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2002,16 +2028,16 @@
         <v>32</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2025,16 +2051,16 @@
         <v>32</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2048,16 +2074,16 @@
         <v>32</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2071,16 +2097,16 @@
         <v>32</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2094,16 +2120,16 @@
         <v>32</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2117,16 +2143,16 @@
         <v>32</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2140,16 +2166,16 @@
         <v>32</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2163,16 +2189,16 @@
         <v>32</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2186,16 +2212,16 @@
         <v>32</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2209,16 +2235,16 @@
         <v>32</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2232,16 +2258,16 @@
         <v>32</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2255,16 +2281,16 @@
         <v>32</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2278,16 +2304,16 @@
         <v>32</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2301,16 +2327,16 @@
         <v>32</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2324,16 +2350,16 @@
         <v>32</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2347,16 +2373,16 @@
         <v>32</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2370,16 +2396,16 @@
         <v>32</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2393,16 +2419,16 @@
         <v>32</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2416,16 +2442,16 @@
         <v>32</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2439,16 +2465,16 @@
         <v>32</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2462,16 +2488,16 @@
         <v>32</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2485,16 +2511,16 @@
         <v>32</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2508,16 +2534,16 @@
         <v>32</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2531,16 +2557,16 @@
         <v>32</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2554,16 +2580,16 @@
         <v>32</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2571,22 +2597,22 @@
         <v>7</v>
       </c>
       <c r="B62" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="10">
+        <v>32</v>
+      </c>
+      <c r="D62" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="10">
-        <v>32</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>70</v>
-      </c>
       <c r="E62" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2594,45 +2620,45 @@
         <v>7</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C63" s="10">
         <v>46</v>
       </c>
       <c r="D63" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="C64" s="10">
         <v>43</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2640,22 +2666,22 @@
         <v>7</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C65" s="10">
         <v>43</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2663,22 +2689,22 @@
         <v>7</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C66" s="10">
         <v>43</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2686,22 +2712,22 @@
         <v>7</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C67" s="10">
         <v>43</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2709,22 +2735,22 @@
         <v>7</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C68" s="10">
         <v>43</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2732,45 +2758,45 @@
         <v>7</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="10">
         <v>43</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>81</v>
       </c>
       <c r="C70" s="14">
         <v>43</v>
       </c>
       <c r="D70" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="16" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2778,22 +2804,22 @@
         <v>7</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C71" s="10">
         <v>47</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2801,22 +2827,22 @@
         <v>7</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C72" s="14">
         <v>43</v>
       </c>
       <c r="D72" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="15" t="s">
         <v>87</v>
-      </c>
-      <c r="E72" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="16" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2824,22 +2850,22 @@
         <v>7</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C73" s="14">
         <v>43</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E73" s="15" t="s">
-        <v>10</v>
+        <v>88</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="16" t="s">
-        <v>88</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2847,22 +2873,22 @@
         <v>7</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C74" s="14">
         <v>43</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E74" s="15" t="s">
-        <v>10</v>
+        <v>89</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" s="16" t="s">
-        <v>88</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2870,22 +2896,22 @@
         <v>7</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C75" s="14">
         <v>43</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E75" s="15" t="s">
-        <v>10</v>
+        <v>90</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" s="16" t="s">
-        <v>88</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2893,22 +2919,22 @@
         <v>7</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C76" s="14">
         <v>43</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E76" s="15" t="s">
-        <v>10</v>
+        <v>91</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" s="16" t="s">
-        <v>88</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2916,22 +2942,22 @@
         <v>7</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C77" s="14">
         <v>43</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>10</v>
+        <v>92</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="16" t="s">
-        <v>88</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2939,22 +2965,22 @@
         <v>7</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C78" s="14">
         <v>75</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>10</v>
+        <v>94</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" s="16" t="s">
-        <v>88</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2962,22 +2988,22 @@
         <v>7</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C79" s="10">
         <v>85</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2985,1080 +3011,1080 @@
         <v>7</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C80" s="14">
         <v>75</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>10</v>
+        <v>97</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" s="16" t="s">
-        <v>88</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C81" s="10">
         <v>49</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C82" s="10">
         <v>49</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C83" s="10">
         <v>49</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C84" s="10">
         <v>49</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C85" s="10">
         <v>49</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C86" s="10">
         <v>49</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C87" s="10">
         <v>49</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C88" s="10">
         <v>49</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C89" s="10">
         <v>49</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C90" s="10">
         <v>49</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C91" s="10">
         <v>86</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C92" s="10">
         <v>86</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C93" s="10">
         <v>88</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C94" s="10">
         <v>49</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C95" s="10">
         <v>49</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C96" s="10">
         <v>49</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C97" s="10">
         <v>49</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C98" s="10">
         <v>49</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G98" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C99" s="10">
         <v>49</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G99" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C100" s="10">
         <v>86</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G100" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C101" s="10">
         <v>43</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F101" s="10" t="s">
-        <v>11</v>
+        <v>189</v>
+      </c>
+      <c r="F101" s="17" t="s">
+        <v>190</v>
       </c>
       <c r="G101" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C102" s="10">
         <v>49</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G102" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C103" s="10">
         <v>49</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G103" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C104" s="10">
         <v>49</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G104" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C105" s="10">
         <v>49</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G105" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C106" s="10">
         <v>47</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G106" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C107" s="10">
         <v>49</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G107" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C108" s="10">
         <v>47</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G108" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C109" s="10">
         <v>49</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G109" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C110" s="10">
         <v>47</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G110" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C111" s="10">
         <v>49</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G111" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C112" s="10">
         <v>49</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C113" s="10">
         <v>47</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C114" s="10">
         <v>49</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C115" s="10">
         <v>49</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G115" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C116" s="10">
         <v>47</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C117" s="10">
         <v>47</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G117" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C118" s="10">
         <v>47</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C119" s="10">
         <v>47</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G119" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B120" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="B120" s="14" t="s">
-        <v>81</v>
       </c>
       <c r="C120" s="14">
         <v>43</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="E120" s="15" t="s">
-        <v>10</v>
+        <v>142</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" s="16" t="s">
-        <v>83</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C121" s="14">
         <v>43</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E121" s="15" t="s">
-        <v>10</v>
+        <v>144</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" s="16" t="s">
-        <v>83</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C122" s="10">
         <v>43</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C123" s="14">
         <v>43</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="E123" s="15" t="s">
-        <v>10</v>
+        <v>146</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" s="16" t="s">
-        <v>83</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C124" s="10">
         <v>43</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G124" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C125" s="10">
         <v>43</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="G125" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C126" s="10">
         <v>43</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="G126" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4066,22 +4092,22 @@
         <v>7</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C127" s="10">
         <v>65</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4089,22 +4115,22 @@
         <v>7</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C128" s="10">
         <v>65</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G128" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4112,22 +4138,22 @@
         <v>7</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C129" s="10">
         <v>65</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G129" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4135,22 +4161,22 @@
         <v>7</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C130" s="10">
         <v>65</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G130" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4158,421 +4184,451 @@
         <v>7</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C131" s="10">
         <v>65</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C132" s="10">
         <v>46</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G132" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C133" s="10">
         <v>46</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G133" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C134" s="10">
         <v>46</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G134" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C135" s="10">
         <v>46</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G135" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C136" s="10">
         <v>46</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G136" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C137" s="10">
         <v>46</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G137" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C138" s="10">
         <v>42</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G138" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C139" s="10">
         <v>55</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G139" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C140" s="10">
         <v>55</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C141" s="10">
         <v>55</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G141" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C142" s="10">
         <v>55</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C143" s="10">
         <v>55</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G143" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C144" s="10">
         <v>55</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G144" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C145" s="10">
         <v>55</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G145" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C146" s="10">
         <v>55</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G146" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C147" s="10">
         <v>46</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G147" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C148" s="10">
         <v>46</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="F148" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G148" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C149" s="10">
+        <v>47</v>
+      </c>
+      <c r="D149" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F149" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="G149" s="12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G149">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="EN CAJA NUEVO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4621,94 +4677,94 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="C2" s="3">
         <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="C3" s="3">
         <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="C4" s="3">
         <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="C5" s="3">
         <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -4718,16 +4774,16 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4748,6 +4804,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010088CFDE48A5EE484BA046482C674F7D2C" ma:contentTypeVersion="5" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a957afc289556db91af8f1434154fed7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b0e9756c-a529-432d-8e6f-c0fac6e075bd" xmlns:ns3="4ac64a84-a62d-431d-9c1b-1dc7a67bb804" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="31559ba2d002422693645d182ed5c335" ns2:_="" ns3:_="">
     <xsd:import namespace="b0e9756c-a529-432d-8e6f-c0fac6e075bd"/>
@@ -4918,15 +4983,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07707F9E-EFCA-4CDA-822F-415F500C4645}">
   <ds:schemaRefs>
@@ -4938,6 +4994,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF6C6FB-B67E-4549-9775-0D93A725D169}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18D2182C-353C-4D26-BB21-152E248A76E7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4954,12 +5018,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF6C6FB-B67E-4549-9775-0D93A725D169}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/stockcau/INVENTARIO_YENNY.xlsx
+++ b/stockcau/INVENTARIO_YENNY.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Notebook" sheetId="5" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$149</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$150</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="190">
   <si>
     <t>MARCA</t>
   </si>
@@ -422,9 +422,6 @@
     <t>806KCBDP5093</t>
   </si>
   <si>
-    <t>47V35A</t>
-  </si>
-  <si>
     <t>806KCFTKE731</t>
   </si>
   <si>
@@ -599,19 +596,19 @@
     <t>NUEVO</t>
   </si>
   <si>
-    <t>6to Piso (Martin Gimenez)</t>
-  </si>
-  <si>
     <t>803KCGWPR167</t>
   </si>
   <si>
-    <t>T4</t>
-  </si>
-  <si>
     <t>Nuevo</t>
   </si>
   <si>
     <t>Totem frente Sala G</t>
+  </si>
+  <si>
+    <t>Yenny</t>
+  </si>
+  <si>
+    <t>806KCXMKE730</t>
   </si>
 </sst>
 </file>
@@ -695,7 +692,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -800,11 +797,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -853,6 +868,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1174,11 +1201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:G149"/>
+  <dimension ref="A1:G150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E149"/>
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,7 +1252,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>10</v>
@@ -1249,7 +1275,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>10</v>
@@ -1272,7 +1298,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>10</v>
@@ -1295,7 +1321,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>10</v>
@@ -1318,7 +1344,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>10</v>
@@ -1341,7 +1367,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>10</v>
@@ -1364,7 +1390,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>10</v>
@@ -1387,7 +1413,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>10</v>
@@ -1410,7 +1436,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>10</v>
@@ -1433,7 +1459,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>10</v>
@@ -1456,7 +1482,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>10</v>
@@ -1479,7 +1505,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>10</v>
@@ -1502,7 +1528,7 @@
         <v>23</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>10</v>
@@ -1525,7 +1551,7 @@
         <v>24</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>10</v>
@@ -1548,7 +1574,7 @@
         <v>25</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>10</v>
@@ -1571,7 +1597,7 @@
         <v>26</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>10</v>
@@ -1594,7 +1620,7 @@
         <v>27</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>10</v>
@@ -1617,7 +1643,7 @@
         <v>28</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>10</v>
@@ -1640,7 +1666,7 @@
         <v>29</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>10</v>
@@ -1663,7 +1689,7 @@
         <v>30</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>10</v>
@@ -1686,7 +1712,7 @@
         <v>31</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>10</v>
@@ -1709,7 +1735,7 @@
         <v>32</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>10</v>
@@ -1732,7 +1758,7 @@
         <v>33</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>10</v>
@@ -1755,7 +1781,7 @@
         <v>34</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>10</v>
@@ -1778,7 +1804,7 @@
         <v>35</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>10</v>
@@ -1801,7 +1827,7 @@
         <v>36</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>10</v>
@@ -1824,7 +1850,7 @@
         <v>37</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>10</v>
@@ -1847,7 +1873,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>10</v>
@@ -1870,7 +1896,7 @@
         <v>39</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>10</v>
@@ -1893,7 +1919,7 @@
         <v>40</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>10</v>
@@ -1916,7 +1942,7 @@
         <v>41</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>10</v>
@@ -1939,7 +1965,7 @@
         <v>42</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>10</v>
@@ -1962,7 +1988,7 @@
         <v>43</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>10</v>
@@ -1985,7 +2011,7 @@
         <v>44</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>10</v>
@@ -2008,7 +2034,7 @@
         <v>45</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>10</v>
@@ -2031,7 +2057,7 @@
         <v>46</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>10</v>
@@ -2054,7 +2080,7 @@
         <v>47</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>10</v>
@@ -2077,7 +2103,7 @@
         <v>48</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>10</v>
@@ -2100,7 +2126,7 @@
         <v>49</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>10</v>
@@ -2123,7 +2149,7 @@
         <v>50</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>10</v>
@@ -2146,7 +2172,7 @@
         <v>51</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>10</v>
@@ -2169,7 +2195,7 @@
         <v>12</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>10</v>
@@ -2192,7 +2218,7 @@
         <v>13</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>10</v>
@@ -2215,7 +2241,7 @@
         <v>52</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>10</v>
@@ -2238,7 +2264,7 @@
         <v>53</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>10</v>
@@ -2261,7 +2287,7 @@
         <v>54</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>10</v>
@@ -2284,7 +2310,7 @@
         <v>55</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>10</v>
@@ -2307,7 +2333,7 @@
         <v>56</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>10</v>
@@ -2330,7 +2356,7 @@
         <v>57</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>10</v>
@@ -2353,7 +2379,7 @@
         <v>58</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>10</v>
@@ -2376,7 +2402,7 @@
         <v>59</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>10</v>
@@ -2399,7 +2425,7 @@
         <v>60</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>10</v>
@@ -2422,7 +2448,7 @@
         <v>61</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>10</v>
@@ -2445,7 +2471,7 @@
         <v>45</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>10</v>
@@ -2468,7 +2494,7 @@
         <v>62</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>10</v>
@@ -2491,7 +2517,7 @@
         <v>63</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>10</v>
@@ -2514,7 +2540,7 @@
         <v>64</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>10</v>
@@ -2537,7 +2563,7 @@
         <v>65</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>10</v>
@@ -2560,7 +2586,7 @@
         <v>66</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>10</v>
@@ -2583,7 +2609,7 @@
         <v>67</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>10</v>
@@ -2606,7 +2632,7 @@
         <v>69</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>10</v>
@@ -2629,7 +2655,7 @@
         <v>71</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>10</v>
@@ -2638,7 +2664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>7</v>
       </c>
@@ -2652,10 +2678,10 @@
         <v>73</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G64" s="12" t="s">
         <v>11</v>
@@ -2675,7 +2701,7 @@
         <v>74</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>10</v>
@@ -2698,7 +2724,7 @@
         <v>75</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>10</v>
@@ -2721,7 +2747,7 @@
         <v>76</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>10</v>
@@ -2744,7 +2770,7 @@
         <v>77</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>10</v>
@@ -2767,7 +2793,7 @@
         <v>78</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>10</v>
@@ -2790,7 +2816,7 @@
         <v>81</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F70" s="14" t="s">
         <v>10</v>
@@ -2801,7 +2827,7 @@
     </row>
     <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="B71" s="10" t="s">
         <v>83</v>
@@ -2813,7 +2839,7 @@
         <v>84</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>10</v>
@@ -2836,7 +2862,7 @@
         <v>86</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F72" s="14" t="s">
         <v>10</v>
@@ -2859,7 +2885,7 @@
         <v>88</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F73" s="14" t="s">
         <v>10</v>
@@ -2882,7 +2908,7 @@
         <v>89</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F74" s="14" t="s">
         <v>10</v>
@@ -2905,7 +2931,7 @@
         <v>90</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F75" s="14" t="s">
         <v>10</v>
@@ -2928,7 +2954,7 @@
         <v>91</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F76" s="14" t="s">
         <v>10</v>
@@ -2951,7 +2977,7 @@
         <v>92</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F77" s="14" t="s">
         <v>10</v>
@@ -2974,7 +3000,7 @@
         <v>94</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F78" s="14" t="s">
         <v>10</v>
@@ -2997,7 +3023,7 @@
         <v>96</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>10</v>
@@ -3020,7 +3046,7 @@
         <v>97</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F80" s="14" t="s">
         <v>10</v>
@@ -3043,7 +3069,7 @@
         <v>99</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>10</v>
@@ -3066,7 +3092,7 @@
         <v>100</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>10</v>
@@ -3089,7 +3115,7 @@
         <v>101</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>10</v>
@@ -3112,7 +3138,7 @@
         <v>102</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>10</v>
@@ -3135,7 +3161,7 @@
         <v>103</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>10</v>
@@ -3158,7 +3184,7 @@
         <v>104</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>10</v>
@@ -3181,7 +3207,7 @@
         <v>105</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>10</v>
@@ -3204,7 +3230,7 @@
         <v>106</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>10</v>
@@ -3227,7 +3253,7 @@
         <v>107</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>10</v>
@@ -3250,7 +3276,7 @@
         <v>108</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>10</v>
@@ -3273,7 +3299,7 @@
         <v>110</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>10</v>
@@ -3296,7 +3322,7 @@
         <v>111</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>10</v>
@@ -3319,7 +3345,7 @@
         <v>113</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F93" s="10" t="s">
         <v>10</v>
@@ -3342,7 +3368,7 @@
         <v>114</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>10</v>
@@ -3365,7 +3391,7 @@
         <v>115</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>10</v>
@@ -3388,7 +3414,7 @@
         <v>116</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F96" s="10" t="s">
         <v>10</v>
@@ -3411,7 +3437,7 @@
         <v>117</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>10</v>
@@ -3434,7 +3460,7 @@
         <v>118</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>10</v>
@@ -3457,7 +3483,7 @@
         <v>119</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>10</v>
@@ -3480,7 +3506,7 @@
         <v>120</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F100" s="10" t="s">
         <v>10</v>
@@ -3489,7 +3515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>79</v>
       </c>
@@ -3503,10 +3529,10 @@
         <v>121</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F101" s="17" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G101" s="12" t="s">
         <v>11</v>
@@ -3526,7 +3552,7 @@
         <v>122</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F102" s="10" t="s">
         <v>10</v>
@@ -3549,7 +3575,7 @@
         <v>123</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F103" s="10" t="s">
         <v>10</v>
@@ -3572,7 +3598,7 @@
         <v>124</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F104" s="10" t="s">
         <v>10</v>
@@ -3595,7 +3621,7 @@
         <v>125</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F105" s="10" t="s">
         <v>10</v>
@@ -3618,7 +3644,7 @@
         <v>126</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F106" s="10" t="s">
         <v>10</v>
@@ -3641,7 +3667,7 @@
         <v>119</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F107" s="10" t="s">
         <v>10</v>
@@ -3655,16 +3681,16 @@
         <v>79</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="C108" s="10">
         <v>47</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F108" s="10" t="s">
         <v>10</v>
@@ -3684,10 +3710,10 @@
         <v>49</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F109" s="10" t="s">
         <v>10</v>
@@ -3701,16 +3727,16 @@
         <v>79</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C110" s="10">
         <v>47</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F110" s="10" t="s">
         <v>10</v>
@@ -3730,10 +3756,10 @@
         <v>49</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F111" s="10" t="s">
         <v>10</v>
@@ -3753,10 +3779,10 @@
         <v>49</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F112" s="10" t="s">
         <v>10</v>
@@ -3770,16 +3796,16 @@
         <v>79</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C113" s="10">
         <v>47</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F113" s="10" t="s">
         <v>10</v>
@@ -3799,10 +3825,10 @@
         <v>49</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F114" s="10" t="s">
         <v>10</v>
@@ -3822,10 +3848,10 @@
         <v>49</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F115" s="10" t="s">
         <v>10</v>
@@ -3839,16 +3865,16 @@
         <v>79</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="C116" s="10">
         <v>47</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F116" s="10" t="s">
         <v>10</v>
@@ -3862,16 +3888,16 @@
         <v>79</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="C117" s="10">
         <v>47</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F117" s="10" t="s">
         <v>10</v>
@@ -3880,24 +3906,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="C118" s="10">
         <v>47</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G118" s="12" t="s">
         <v>11</v>
@@ -3908,16 +3934,16 @@
         <v>79</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="C119" s="10">
         <v>47</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F119" s="10" t="s">
         <v>10</v>
@@ -3937,10 +3963,10 @@
         <v>43</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F120" s="14" t="s">
         <v>10</v>
@@ -3954,16 +3980,16 @@
         <v>79</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C121" s="14">
         <v>43</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F121" s="14" t="s">
         <v>10</v>
@@ -3977,16 +4003,16 @@
         <v>79</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C122" s="10">
         <v>43</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F122" s="10" t="s">
         <v>10</v>
@@ -4000,16 +4026,16 @@
         <v>79</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C123" s="14">
         <v>43</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F123" s="14" t="s">
         <v>10</v>
@@ -4023,16 +4049,16 @@
         <v>79</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C124" s="10">
         <v>43</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F124" s="10" t="s">
         <v>10</v>
@@ -4041,47 +4067,47 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C125" s="10">
         <v>43</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G125" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C126" s="10">
         <v>43</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G126" s="12" t="s">
         <v>11</v>
@@ -4092,16 +4118,16 @@
         <v>7</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C127" s="10">
         <v>65</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F127" s="10" t="s">
         <v>10</v>
@@ -4115,16 +4141,16 @@
         <v>7</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C128" s="10">
         <v>65</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F128" s="10" t="s">
         <v>10</v>
@@ -4138,16 +4164,16 @@
         <v>7</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C129" s="10">
         <v>65</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F129" s="10" t="s">
         <v>10</v>
@@ -4161,16 +4187,16 @@
         <v>7</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C130" s="10">
         <v>65</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F130" s="10" t="s">
         <v>10</v>
@@ -4184,16 +4210,16 @@
         <v>7</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C131" s="10">
         <v>65</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F131" s="10" t="s">
         <v>10</v>
@@ -4213,10 +4239,10 @@
         <v>46</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F132" s="10" t="s">
         <v>10</v>
@@ -4236,10 +4262,10 @@
         <v>46</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F133" s="10" t="s">
         <v>10</v>
@@ -4259,10 +4285,10 @@
         <v>46</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F134" s="10" t="s">
         <v>10</v>
@@ -4282,10 +4308,10 @@
         <v>46</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F135" s="10" t="s">
         <v>10</v>
@@ -4305,10 +4331,10 @@
         <v>46</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F136" s="10" t="s">
         <v>10</v>
@@ -4328,10 +4354,10 @@
         <v>46</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F137" s="10" t="s">
         <v>10</v>
@@ -4345,16 +4371,16 @@
         <v>79</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C138" s="10">
         <v>42</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F138" s="10" t="s">
         <v>10</v>
@@ -4368,16 +4394,16 @@
         <v>79</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C139" s="10">
         <v>55</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F139" s="10" t="s">
         <v>10</v>
@@ -4391,16 +4417,16 @@
         <v>79</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C140" s="10">
         <v>55</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F140" s="10" t="s">
         <v>10</v>
@@ -4414,16 +4440,16 @@
         <v>79</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C141" s="10">
         <v>55</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F141" s="10" t="s">
         <v>10</v>
@@ -4437,16 +4463,16 @@
         <v>79</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C142" s="10">
         <v>55</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F142" s="10" t="s">
         <v>10</v>
@@ -4460,16 +4486,16 @@
         <v>79</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C143" s="10">
         <v>55</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F143" s="10" t="s">
         <v>10</v>
@@ -4483,16 +4509,16 @@
         <v>79</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C144" s="10">
         <v>55</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F144" s="10" t="s">
         <v>10</v>
@@ -4506,16 +4532,16 @@
         <v>79</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C145" s="10">
         <v>55</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F145" s="10" t="s">
         <v>10</v>
@@ -4529,16 +4555,16 @@
         <v>79</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C146" s="10">
         <v>55</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F146" s="10" t="s">
         <v>10</v>
@@ -4558,10 +4584,10 @@
         <v>46</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F147" s="10" t="s">
         <v>10</v>
@@ -4575,16 +4601,16 @@
         <v>79</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C148" s="10">
         <v>46</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F148" s="10" t="s">
         <v>10</v>
@@ -4597,33 +4623,50 @@
       <c r="A149" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B149" s="10" t="s">
-        <v>127</v>
+      <c r="B149" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="C149" s="10">
         <v>47</v>
       </c>
       <c r="D149" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E149" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F149" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B150" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C150" s="19">
+        <v>47</v>
+      </c>
+      <c r="D150" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="F149" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="G149" s="12" t="s">
+      <c r="E150" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="F150" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="21" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G149">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="EN CAJA NUEVO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G150"/>
   <conditionalFormatting sqref="D1">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
@@ -4677,94 +4720,94 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="C2" s="3">
         <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="C3" s="3">
         <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="C4" s="3">
         <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="C5" s="3">
         <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -4790,6 +4833,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="4ac64a84-a62d-431d-9c1b-1dc7a67bb804">
@@ -4801,15 +4853,6 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4984,19 +5027,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF6C6FB-B67E-4549-9775-0D93A725D169}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07707F9E-EFCA-4CDA-822F-415F500C4645}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="4ac64a84-a62d-431d-9c1b-1dc7a67bb804"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF6C6FB-B67E-4549-9775-0D93A725D169}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/stockcau/INVENTARIO_YENNY.xlsx
+++ b/stockcau/INVENTARIO_YENNY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Proyectos Django\inventario-aep\stockcau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\Proyectos Django\inventario-aep\stockcau\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,9 @@
     <sheet name="Hoja1" sheetId="6" r:id="rId1"/>
     <sheet name="Notebook" sheetId="5" state="hidden" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$150</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="190">
   <si>
     <t>MARCA</t>
   </si>
@@ -68,9 +71,6 @@
     <t>04TEHCJJ300028</t>
   </si>
   <si>
-    <t>EN CAJA NUEVO</t>
-  </si>
-  <si>
     <t>YENNY</t>
   </si>
   <si>
@@ -422,9 +422,6 @@
     <t>806KCBDP5093</t>
   </si>
   <si>
-    <t>47V35A</t>
-  </si>
-  <si>
     <t>806KCFTKE731</t>
   </si>
   <si>
@@ -594,6 +591,24 @@
   </si>
   <si>
     <t>267J7M3</t>
+  </si>
+  <si>
+    <t>NUEVO</t>
+  </si>
+  <si>
+    <t>803KCGWPR167</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>Totem frente Sala G</t>
+  </si>
+  <si>
+    <t>Yenny</t>
+  </si>
+  <si>
+    <t>806KCXMKE730</t>
   </si>
 </sst>
 </file>
@@ -677,7 +692,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -782,11 +797,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -828,10 +861,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1155,13 +1201,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G148"/>
+  <dimension ref="A1:G150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="L99" sqref="L99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
@@ -1200,13 +1252,13 @@
         <v>9</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1220,16 +1272,16 @@
         <v>32</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1243,16 +1295,16 @@
         <v>32</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1266,16 +1318,16 @@
         <v>32</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1289,16 +1341,16 @@
         <v>32</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1312,16 +1364,16 @@
         <v>32</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1335,16 +1387,16 @@
         <v>32</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1358,16 +1410,16 @@
         <v>32</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1381,16 +1433,16 @@
         <v>32</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1404,16 +1456,16 @@
         <v>32</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1427,16 +1479,16 @@
         <v>32</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1450,16 +1502,16 @@
         <v>32</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1473,16 +1525,16 @@
         <v>32</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1496,16 +1548,16 @@
         <v>32</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1519,16 +1571,16 @@
         <v>32</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1542,16 +1594,16 @@
         <v>32</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1565,16 +1617,16 @@
         <v>32</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1588,16 +1640,16 @@
         <v>32</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1611,16 +1663,16 @@
         <v>32</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1634,16 +1686,16 @@
         <v>32</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1657,16 +1709,16 @@
         <v>32</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1680,16 +1732,16 @@
         <v>32</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1703,16 +1755,16 @@
         <v>32</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1726,16 +1778,16 @@
         <v>32</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1749,16 +1801,16 @@
         <v>32</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1772,16 +1824,16 @@
         <v>32</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1795,16 +1847,16 @@
         <v>32</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1818,16 +1870,16 @@
         <v>32</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1841,16 +1893,16 @@
         <v>32</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1864,16 +1916,16 @@
         <v>32</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1887,16 +1939,16 @@
         <v>32</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1910,16 +1962,16 @@
         <v>32</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1933,16 +1985,16 @@
         <v>32</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1956,16 +2008,16 @@
         <v>32</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1979,16 +2031,16 @@
         <v>32</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2002,16 +2054,16 @@
         <v>32</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2025,16 +2077,16 @@
         <v>32</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2048,16 +2100,16 @@
         <v>32</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2071,16 +2123,16 @@
         <v>32</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2094,16 +2146,16 @@
         <v>32</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2117,16 +2169,16 @@
         <v>32</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2140,16 +2192,16 @@
         <v>32</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2163,16 +2215,16 @@
         <v>32</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2186,16 +2238,16 @@
         <v>32</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2209,16 +2261,16 @@
         <v>32</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2232,16 +2284,16 @@
         <v>32</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2255,16 +2307,16 @@
         <v>32</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2278,16 +2330,16 @@
         <v>32</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2301,16 +2353,16 @@
         <v>32</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2324,16 +2376,16 @@
         <v>32</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2347,16 +2399,16 @@
         <v>32</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2370,16 +2422,16 @@
         <v>32</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2393,16 +2445,16 @@
         <v>32</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2416,16 +2468,16 @@
         <v>32</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2439,16 +2491,16 @@
         <v>32</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2462,16 +2514,16 @@
         <v>32</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2485,16 +2537,16 @@
         <v>32</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2508,16 +2560,16 @@
         <v>32</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2531,16 +2583,16 @@
         <v>32</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2554,16 +2606,16 @@
         <v>32</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2571,22 +2623,22 @@
         <v>7</v>
       </c>
       <c r="B62" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="10">
+        <v>32</v>
+      </c>
+      <c r="D62" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="10">
-        <v>32</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>70</v>
-      </c>
       <c r="E62" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2594,22 +2646,22 @@
         <v>7</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C63" s="10">
         <v>46</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2617,22 +2669,22 @@
         <v>7</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C64" s="10">
         <v>43</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>11</v>
+        <v>187</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2640,22 +2692,22 @@
         <v>7</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C65" s="10">
         <v>43</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2663,22 +2715,22 @@
         <v>7</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C66" s="10">
         <v>43</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2686,22 +2738,22 @@
         <v>7</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C67" s="10">
         <v>43</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2709,22 +2761,22 @@
         <v>7</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C68" s="10">
         <v>43</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2732,68 +2784,68 @@
         <v>7</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="10">
         <v>43</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>81</v>
       </c>
       <c r="C70" s="14">
         <v>43</v>
       </c>
       <c r="D70" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="16" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C71" s="10">
         <v>47</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2801,22 +2853,22 @@
         <v>7</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C72" s="14">
         <v>43</v>
       </c>
       <c r="D72" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="15" t="s">
         <v>87</v>
-      </c>
-      <c r="E72" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="16" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2824,22 +2876,22 @@
         <v>7</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C73" s="14">
         <v>43</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E73" s="15" t="s">
-        <v>10</v>
+        <v>88</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="16" t="s">
-        <v>88</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2847,22 +2899,22 @@
         <v>7</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C74" s="14">
         <v>43</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E74" s="15" t="s">
-        <v>10</v>
+        <v>89</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" s="16" t="s">
-        <v>88</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2870,22 +2922,22 @@
         <v>7</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C75" s="14">
         <v>43</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E75" s="15" t="s">
-        <v>10</v>
+        <v>90</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" s="16" t="s">
-        <v>88</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2893,22 +2945,22 @@
         <v>7</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C76" s="14">
         <v>43</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E76" s="15" t="s">
-        <v>10</v>
+        <v>91</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" s="16" t="s">
-        <v>88</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2916,22 +2968,22 @@
         <v>7</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C77" s="14">
         <v>43</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>10</v>
+        <v>92</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="16" t="s">
-        <v>88</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2939,22 +2991,22 @@
         <v>7</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C78" s="14">
         <v>75</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>10</v>
+        <v>94</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" s="16" t="s">
-        <v>88</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2962,22 +3014,22 @@
         <v>7</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C79" s="10">
         <v>85</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2985,1080 +3037,1080 @@
         <v>7</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C80" s="14">
         <v>75</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>10</v>
+        <v>97</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" s="16" t="s">
-        <v>88</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C81" s="10">
         <v>49</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C82" s="10">
         <v>49</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C83" s="10">
         <v>49</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C84" s="10">
         <v>49</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C85" s="10">
         <v>49</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C86" s="10">
         <v>49</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C87" s="10">
         <v>49</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C88" s="10">
         <v>49</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C89" s="10">
         <v>49</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C90" s="10">
         <v>49</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C91" s="10">
         <v>86</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C92" s="10">
         <v>86</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C93" s="10">
         <v>88</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C94" s="10">
         <v>49</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C95" s="10">
         <v>49</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C96" s="10">
         <v>49</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C97" s="10">
         <v>49</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C98" s="10">
         <v>49</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G98" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C99" s="10">
         <v>49</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G99" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C100" s="10">
         <v>86</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G100" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C101" s="10">
         <v>43</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F101" s="10" t="s">
-        <v>11</v>
+        <v>186</v>
+      </c>
+      <c r="F101" s="17" t="s">
+        <v>187</v>
       </c>
       <c r="G101" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C102" s="10">
         <v>49</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G102" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C103" s="10">
         <v>49</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G103" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C104" s="10">
         <v>49</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G104" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C105" s="10">
         <v>49</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G105" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C106" s="10">
         <v>47</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G106" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C107" s="10">
         <v>49</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G107" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="C108" s="10">
         <v>47</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G108" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C109" s="10">
         <v>49</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G109" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C110" s="10">
         <v>47</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G110" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C111" s="10">
         <v>49</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G111" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C112" s="10">
         <v>49</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C113" s="10">
         <v>47</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C114" s="10">
         <v>49</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C115" s="10">
         <v>49</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G115" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="C116" s="10">
         <v>47</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="C117" s="10">
         <v>47</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G117" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="C118" s="10">
         <v>47</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="C119" s="10">
         <v>47</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G119" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B120" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="B120" s="14" t="s">
-        <v>81</v>
       </c>
       <c r="C120" s="14">
         <v>43</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="E120" s="15" t="s">
-        <v>10</v>
+        <v>141</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" s="16" t="s">
-        <v>83</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C121" s="14">
         <v>43</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E121" s="15" t="s">
-        <v>10</v>
+        <v>143</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" s="16" t="s">
-        <v>83</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C122" s="10">
         <v>43</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C123" s="14">
         <v>43</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="E123" s="15" t="s">
-        <v>10</v>
+        <v>145</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" s="16" t="s">
-        <v>83</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C124" s="10">
         <v>43</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G124" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C125" s="10">
         <v>43</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>11</v>
+        <v>187</v>
       </c>
       <c r="G125" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C126" s="10">
         <v>43</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>11</v>
+        <v>187</v>
       </c>
       <c r="G126" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4066,22 +4118,22 @@
         <v>7</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C127" s="10">
         <v>65</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4089,22 +4141,22 @@
         <v>7</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C128" s="10">
         <v>65</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G128" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4112,22 +4164,22 @@
         <v>7</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C129" s="10">
         <v>65</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G129" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4135,22 +4187,22 @@
         <v>7</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C130" s="10">
         <v>65</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G130" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4158,421 +4210,468 @@
         <v>7</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C131" s="10">
         <v>65</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C132" s="10">
         <v>46</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G132" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C133" s="10">
         <v>46</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G133" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C134" s="10">
         <v>46</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G134" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C135" s="10">
         <v>46</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G135" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C136" s="10">
         <v>46</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G136" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C137" s="10">
         <v>46</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G137" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C138" s="10">
         <v>42</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G138" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C139" s="10">
         <v>55</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G139" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C140" s="10">
         <v>55</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C141" s="10">
         <v>55</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G141" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C142" s="10">
         <v>55</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C143" s="10">
         <v>55</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G143" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C144" s="10">
         <v>55</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G144" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C145" s="10">
         <v>55</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G145" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C146" s="10">
         <v>55</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G146" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C147" s="10">
         <v>46</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G147" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C148" s="10">
         <v>46</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="F148" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G148" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B149" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C149" s="10">
+        <v>47</v>
+      </c>
+      <c r="D149" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F149" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B150" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C150" s="19">
+        <v>47</v>
+      </c>
+      <c r="D150" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E150" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="F150" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="21" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G150"/>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4621,94 +4720,94 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C2" s="3">
         <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C3" s="3">
         <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C4" s="3">
         <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C5" s="3">
         <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -4718,33 +4817,28 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="4ac64a84-a62d-431d-9c1b-1dc7a67bb804">
-      <UserInfo>
-        <DisplayName>AQUINO, Cristian</DisplayName>
-        <AccountId>31</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4919,20 +5013,23 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="4ac64a84-a62d-431d-9c1b-1dc7a67bb804">
+      <UserInfo>
+        <DisplayName>AQUINO, Cristian</DisplayName>
+        <AccountId>31</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07707F9E-EFCA-4CDA-822F-415F500C4645}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF6C6FB-B67E-4549-9775-0D93A725D169}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ac64a84-a62d-431d-9c1b-1dc7a67bb804"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4957,9 +5054,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF6C6FB-B67E-4549-9775-0D93A725D169}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07707F9E-EFCA-4CDA-822F-415F500C4645}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ac64a84-a62d-431d-9c1b-1dc7a67bb804"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/stockcau/INVENTARIO_YENNY.xlsx
+++ b/stockcau/INVENTARIO_YENNY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\Proyectos Django\inventario-aep\stockcau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Proyectos Django\inventario-aep\stockcau\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="189">
   <si>
     <t>MARCA</t>
   </si>
@@ -591,9 +591,6 @@
   </si>
   <si>
     <t>267J7M3</t>
-  </si>
-  <si>
-    <t>NUEVO</t>
   </si>
   <si>
     <t>803KCGWPR167</t>
@@ -1203,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,7 +1249,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>10</v>
@@ -1275,7 +1272,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>10</v>
@@ -1298,7 +1295,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>10</v>
@@ -1321,7 +1318,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>10</v>
@@ -1344,7 +1341,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>10</v>
@@ -1367,7 +1364,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>10</v>
@@ -1390,7 +1387,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>10</v>
@@ -1413,7 +1410,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>10</v>
@@ -1436,7 +1433,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>10</v>
@@ -1459,7 +1456,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>10</v>
@@ -1482,7 +1479,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>10</v>
@@ -1505,7 +1502,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>10</v>
@@ -1528,7 +1525,7 @@
         <v>23</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>10</v>
@@ -1551,7 +1548,7 @@
         <v>24</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>10</v>
@@ -1574,7 +1571,7 @@
         <v>25</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>10</v>
@@ -1597,7 +1594,7 @@
         <v>26</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>10</v>
@@ -1620,7 +1617,7 @@
         <v>27</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>10</v>
@@ -1643,7 +1640,7 @@
         <v>28</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>10</v>
@@ -1666,7 +1663,7 @@
         <v>29</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>10</v>
@@ -1689,7 +1686,7 @@
         <v>30</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>10</v>
@@ -1712,7 +1709,7 @@
         <v>31</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>10</v>
@@ -1735,7 +1732,7 @@
         <v>32</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>10</v>
@@ -1758,7 +1755,7 @@
         <v>33</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>10</v>
@@ -1781,7 +1778,7 @@
         <v>34</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>10</v>
@@ -1804,7 +1801,7 @@
         <v>35</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>10</v>
@@ -1827,7 +1824,7 @@
         <v>36</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>10</v>
@@ -1850,7 +1847,7 @@
         <v>37</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>10</v>
@@ -1873,7 +1870,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>10</v>
@@ -1896,7 +1893,7 @@
         <v>39</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>10</v>
@@ -1919,7 +1916,7 @@
         <v>40</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>10</v>
@@ -1942,7 +1939,7 @@
         <v>41</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>10</v>
@@ -1965,7 +1962,7 @@
         <v>42</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>10</v>
@@ -1988,7 +1985,7 @@
         <v>43</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>10</v>
@@ -2011,7 +2008,7 @@
         <v>44</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>10</v>
@@ -2034,7 +2031,7 @@
         <v>45</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>10</v>
@@ -2057,7 +2054,7 @@
         <v>46</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>10</v>
@@ -2080,7 +2077,7 @@
         <v>47</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>10</v>
@@ -2103,7 +2100,7 @@
         <v>48</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>10</v>
@@ -2126,7 +2123,7 @@
         <v>49</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>10</v>
@@ -2149,7 +2146,7 @@
         <v>50</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>10</v>
@@ -2172,7 +2169,7 @@
         <v>51</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>10</v>
@@ -2195,7 +2192,7 @@
         <v>12</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>10</v>
@@ -2218,7 +2215,7 @@
         <v>13</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>10</v>
@@ -2241,7 +2238,7 @@
         <v>52</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>10</v>
@@ -2264,7 +2261,7 @@
         <v>53</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>10</v>
@@ -2287,7 +2284,7 @@
         <v>54</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>10</v>
@@ -2310,7 +2307,7 @@
         <v>55</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>10</v>
@@ -2333,7 +2330,7 @@
         <v>56</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>10</v>
@@ -2356,7 +2353,7 @@
         <v>57</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>10</v>
@@ -2379,7 +2376,7 @@
         <v>58</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>10</v>
@@ -2402,7 +2399,7 @@
         <v>59</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>10</v>
@@ -2425,7 +2422,7 @@
         <v>60</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>10</v>
@@ -2448,7 +2445,7 @@
         <v>61</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>10</v>
@@ -2471,7 +2468,7 @@
         <v>45</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>10</v>
@@ -2494,7 +2491,7 @@
         <v>62</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>10</v>
@@ -2517,7 +2514,7 @@
         <v>63</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>10</v>
@@ -2540,7 +2537,7 @@
         <v>64</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>10</v>
@@ -2563,7 +2560,7 @@
         <v>65</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>10</v>
@@ -2586,7 +2583,7 @@
         <v>66</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>10</v>
@@ -2609,7 +2606,7 @@
         <v>67</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>10</v>
@@ -2632,7 +2629,7 @@
         <v>69</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>10</v>
@@ -2655,7 +2652,7 @@
         <v>71</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>10</v>
@@ -2678,10 +2675,10 @@
         <v>73</v>
       </c>
       <c r="E64" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F64" s="10" t="s">
         <v>186</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>187</v>
       </c>
       <c r="G64" s="12" t="s">
         <v>11</v>
@@ -2701,7 +2698,7 @@
         <v>74</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>10</v>
@@ -2724,7 +2721,7 @@
         <v>75</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>10</v>
@@ -2747,7 +2744,7 @@
         <v>76</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>10</v>
@@ -2770,7 +2767,7 @@
         <v>77</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>10</v>
@@ -2793,7 +2790,7 @@
         <v>78</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>10</v>
@@ -2816,7 +2813,7 @@
         <v>81</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F70" s="14" t="s">
         <v>10</v>
@@ -2839,7 +2836,7 @@
         <v>84</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>10</v>
@@ -2862,7 +2859,7 @@
         <v>86</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F72" s="14" t="s">
         <v>10</v>
@@ -2885,7 +2882,7 @@
         <v>88</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F73" s="14" t="s">
         <v>10</v>
@@ -2908,7 +2905,7 @@
         <v>89</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F74" s="14" t="s">
         <v>10</v>
@@ -2931,7 +2928,7 @@
         <v>90</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F75" s="14" t="s">
         <v>10</v>
@@ -2954,7 +2951,7 @@
         <v>91</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F76" s="14" t="s">
         <v>10</v>
@@ -2977,7 +2974,7 @@
         <v>92</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F77" s="14" t="s">
         <v>10</v>
@@ -3000,7 +2997,7 @@
         <v>94</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F78" s="14" t="s">
         <v>10</v>
@@ -3023,7 +3020,7 @@
         <v>96</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>10</v>
@@ -3046,7 +3043,7 @@
         <v>97</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F80" s="14" t="s">
         <v>10</v>
@@ -3069,7 +3066,7 @@
         <v>99</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>10</v>
@@ -3092,7 +3089,7 @@
         <v>100</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>10</v>
@@ -3115,7 +3112,7 @@
         <v>101</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>10</v>
@@ -3138,7 +3135,7 @@
         <v>102</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>10</v>
@@ -3161,7 +3158,7 @@
         <v>103</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>10</v>
@@ -3184,7 +3181,7 @@
         <v>104</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>10</v>
@@ -3207,7 +3204,7 @@
         <v>105</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>10</v>
@@ -3230,7 +3227,7 @@
         <v>106</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>10</v>
@@ -3253,7 +3250,7 @@
         <v>107</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>10</v>
@@ -3276,7 +3273,7 @@
         <v>108</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>10</v>
@@ -3299,7 +3296,7 @@
         <v>110</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>10</v>
@@ -3322,7 +3319,7 @@
         <v>111</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>10</v>
@@ -3345,7 +3342,7 @@
         <v>113</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F93" s="10" t="s">
         <v>10</v>
@@ -3368,7 +3365,7 @@
         <v>114</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>10</v>
@@ -3391,7 +3388,7 @@
         <v>115</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>10</v>
@@ -3414,7 +3411,7 @@
         <v>116</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F96" s="10" t="s">
         <v>10</v>
@@ -3437,7 +3434,7 @@
         <v>117</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>10</v>
@@ -3460,7 +3457,7 @@
         <v>118</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>10</v>
@@ -3483,7 +3480,7 @@
         <v>119</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>10</v>
@@ -3506,7 +3503,7 @@
         <v>120</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F100" s="10" t="s">
         <v>10</v>
@@ -3529,10 +3526,10 @@
         <v>121</v>
       </c>
       <c r="E101" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F101" s="17" t="s">
         <v>186</v>
-      </c>
-      <c r="F101" s="17" t="s">
-        <v>187</v>
       </c>
       <c r="G101" s="12" t="s">
         <v>11</v>
@@ -3552,7 +3549,7 @@
         <v>122</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F102" s="10" t="s">
         <v>10</v>
@@ -3575,7 +3572,7 @@
         <v>123</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F103" s="10" t="s">
         <v>10</v>
@@ -3598,7 +3595,7 @@
         <v>124</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F104" s="10" t="s">
         <v>10</v>
@@ -3621,7 +3618,7 @@
         <v>125</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F105" s="10" t="s">
         <v>10</v>
@@ -3644,7 +3641,7 @@
         <v>126</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F106" s="10" t="s">
         <v>10</v>
@@ -3667,7 +3664,7 @@
         <v>119</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F107" s="10" t="s">
         <v>10</v>
@@ -3690,7 +3687,7 @@
         <v>127</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F108" s="10" t="s">
         <v>10</v>
@@ -3713,7 +3710,7 @@
         <v>128</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F109" s="10" t="s">
         <v>10</v>
@@ -3736,7 +3733,7 @@
         <v>130</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F110" s="10" t="s">
         <v>10</v>
@@ -3759,7 +3756,7 @@
         <v>131</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F111" s="10" t="s">
         <v>10</v>
@@ -3782,7 +3779,7 @@
         <v>132</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F112" s="10" t="s">
         <v>10</v>
@@ -3805,7 +3802,7 @@
         <v>134</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F113" s="10" t="s">
         <v>10</v>
@@ -3828,7 +3825,7 @@
         <v>135</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F114" s="10" t="s">
         <v>10</v>
@@ -3851,7 +3848,7 @@
         <v>136</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F115" s="10" t="s">
         <v>10</v>
@@ -3874,7 +3871,7 @@
         <v>137</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F116" s="10" t="s">
         <v>10</v>
@@ -3897,7 +3894,7 @@
         <v>138</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F117" s="10" t="s">
         <v>10</v>
@@ -3920,10 +3917,10 @@
         <v>139</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G118" s="12" t="s">
         <v>11</v>
@@ -3943,7 +3940,7 @@
         <v>140</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F119" s="10" t="s">
         <v>10</v>
@@ -3966,7 +3963,7 @@
         <v>141</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F120" s="14" t="s">
         <v>10</v>
@@ -3989,7 +3986,7 @@
         <v>143</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F121" s="14" t="s">
         <v>10</v>
@@ -4012,7 +4009,7 @@
         <v>144</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F122" s="10" t="s">
         <v>10</v>
@@ -4035,7 +4032,7 @@
         <v>145</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F123" s="14" t="s">
         <v>10</v>
@@ -4058,7 +4055,7 @@
         <v>146</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F124" s="10" t="s">
         <v>10</v>
@@ -4081,10 +4078,10 @@
         <v>147</v>
       </c>
       <c r="E125" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F125" s="10" t="s">
         <v>186</v>
-      </c>
-      <c r="F125" s="10" t="s">
-        <v>187</v>
       </c>
       <c r="G125" s="12" t="s">
         <v>11</v>
@@ -4104,10 +4101,10 @@
         <v>148</v>
       </c>
       <c r="E126" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F126" s="10" t="s">
         <v>186</v>
-      </c>
-      <c r="F126" s="10" t="s">
-        <v>187</v>
       </c>
       <c r="G126" s="12" t="s">
         <v>11</v>
@@ -4127,7 +4124,7 @@
         <v>150</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F127" s="10" t="s">
         <v>10</v>
@@ -4150,7 +4147,7 @@
         <v>151</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F128" s="10" t="s">
         <v>10</v>
@@ -4173,7 +4170,7 @@
         <v>152</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F129" s="10" t="s">
         <v>10</v>
@@ -4196,7 +4193,7 @@
         <v>153</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F130" s="10" t="s">
         <v>10</v>
@@ -4219,7 +4216,7 @@
         <v>154</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F131" s="10" t="s">
         <v>10</v>
@@ -4242,7 +4239,7 @@
         <v>155</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F132" s="10" t="s">
         <v>10</v>
@@ -4265,7 +4262,7 @@
         <v>156</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F133" s="10" t="s">
         <v>10</v>
@@ -4288,7 +4285,7 @@
         <v>157</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F134" s="10" t="s">
         <v>10</v>
@@ -4311,7 +4308,7 @@
         <v>158</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F135" s="10" t="s">
         <v>10</v>
@@ -4334,7 +4331,7 @@
         <v>159</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F136" s="10" t="s">
         <v>10</v>
@@ -4357,7 +4354,7 @@
         <v>160</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F137" s="10" t="s">
         <v>10</v>
@@ -4380,7 +4377,7 @@
         <v>162</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F138" s="10" t="s">
         <v>10</v>
@@ -4403,7 +4400,7 @@
         <v>164</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F139" s="10" t="s">
         <v>10</v>
@@ -4426,7 +4423,7 @@
         <v>165</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F140" s="10" t="s">
         <v>10</v>
@@ -4449,7 +4446,7 @@
         <v>166</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F141" s="10" t="s">
         <v>10</v>
@@ -4472,7 +4469,7 @@
         <v>167</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F142" s="10" t="s">
         <v>10</v>
@@ -4495,7 +4492,7 @@
         <v>168</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F143" s="10" t="s">
         <v>10</v>
@@ -4518,7 +4515,7 @@
         <v>169</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F144" s="10" t="s">
         <v>10</v>
@@ -4541,7 +4538,7 @@
         <v>170</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F145" s="10" t="s">
         <v>10</v>
@@ -4564,7 +4561,7 @@
         <v>171</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F146" s="10" t="s">
         <v>10</v>
@@ -4587,7 +4584,7 @@
         <v>172</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F147" s="10" t="s">
         <v>10</v>
@@ -4610,7 +4607,7 @@
         <v>174</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F148" s="10" t="s">
         <v>10</v>
@@ -4630,10 +4627,10 @@
         <v>47</v>
       </c>
       <c r="D149" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E149" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F149" s="10" t="s">
         <v>10</v>
@@ -4653,10 +4650,10 @@
         <v>47</v>
       </c>
       <c r="D150" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E150" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F150" s="19" t="s">
         <v>10</v>
@@ -4842,20 +4839,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="4ac64a84-a62d-431d-9c1b-1dc7a67bb804">
-      <UserInfo>
-        <DisplayName>AQUINO, Cristian</DisplayName>
-        <AccountId>31</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010088CFDE48A5EE484BA046482C674F7D2C" ma:contentTypeVersion="5" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a957afc289556db91af8f1434154fed7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b0e9756c-a529-432d-8e6f-c0fac6e075bd" xmlns:ns3="4ac64a84-a62d-431d-9c1b-1dc7a67bb804" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="31559ba2d002422693645d182ed5c335" ns2:_="" ns3:_="">
     <xsd:import namespace="b0e9756c-a529-432d-8e6f-c0fac6e075bd"/>
@@ -5026,6 +5009,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="4ac64a84-a62d-431d-9c1b-1dc7a67bb804">
+      <UserInfo>
+        <DisplayName>AQUINO, Cristian</DisplayName>
+        <AccountId>31</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF6C6FB-B67E-4549-9775-0D93A725D169}">
   <ds:schemaRefs>
@@ -5035,16 +5032,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07707F9E-EFCA-4CDA-822F-415F500C4645}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ac64a84-a62d-431d-9c1b-1dc7a67bb804"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18D2182C-353C-4D26-BB21-152E248A76E7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5061,4 +5048,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07707F9E-EFCA-4CDA-822F-415F500C4645}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ac64a84-a62d-431d-9c1b-1dc7a67bb804"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>